--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/28.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/28.xlsx
@@ -479,13 +479,13 @@
         <v>-0.04796450472827491</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.126249693540249</v>
+        <v>-2.127597618235863</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04779121150451693</v>
+        <v>0.04906472587756687</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03493720924823616</v>
+        <v>-0.0345761362076013</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.04464770460896317</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.185549231337079</v>
+        <v>-2.183483430004934</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03765745546653249</v>
+        <v>-0.03843083488464903</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.05242180528857274</v>
+        <v>-0.05274811285063295</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.05152942231842988</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.335332331291514</v>
+        <v>-2.332418740218689</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0659211796270375</v>
+        <v>-0.06576869945785048</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03190773324682855</v>
+        <v>-0.03274759401871063</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.06870755164420284</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.484795832811332</v>
+        <v>-2.480942963896315</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09032593566575754</v>
+        <v>-0.09114200953124645</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03367833297142817</v>
+        <v>-0.0332434595289068</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.08930479576671924</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.64152165982919</v>
+        <v>-2.63832201595897</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.05055788770043067</v>
+        <v>-0.05275177237469343</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0256109121800816</v>
+        <v>-0.02534620660637294</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1034241876952464</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.589846130491711</v>
+        <v>-2.581300531889794</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.03681454509126668</v>
+        <v>-0.03877483014633494</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03601859860811046</v>
+        <v>-0.03668219230441235</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1018536385409612</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.425112044988151</v>
+        <v>-2.413395468787821</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03237371264386407</v>
+        <v>-0.03711889550896396</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0009627217851545333</v>
+        <v>0.002288689336404811</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08120391518323726</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.016190117341739</v>
+        <v>-2.00733162943265</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.04903857529465126</v>
+        <v>-0.05624356824907607</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01057324188867368</v>
+        <v>0.01245850670050193</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.03823593738090732</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.618541963484338</v>
+        <v>-1.609841445030527</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1179382645434956</v>
+        <v>-0.1256269245945816</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04989848744268147</v>
+        <v>0.05281756780159767</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.02896420655136682</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.104234891706013</v>
+        <v>-1.093221554045973</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3086165458738875</v>
+        <v>-0.3198171291816888</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06651516636000555</v>
+        <v>0.06952512489975722</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.120972856793916</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5496809842311131</v>
+        <v>-0.5401204776230873</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6049733431817084</v>
+        <v>-0.6154127454849281</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1431864648719737</v>
+        <v>0.1491026954364298</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2349723690509268</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0352213562774162</v>
+        <v>0.04809373216018396</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9378094961658305</v>
+        <v>-0.9439105326953414</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2423504181010567</v>
+        <v>0.2464679925897828</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3626016173398846</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6447193579964877</v>
+        <v>0.6569025235145302</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.314949067267578</v>
+        <v>-1.318149321058475</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3942468932004233</v>
+        <v>0.3982693200635767</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4994202066386463</v>
       </c>
       <c r="E15" t="n">
-        <v>1.161610663682195</v>
+        <v>1.176428686523789</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.72454068781706</v>
+        <v>-1.72136727053594</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5280317738037563</v>
+        <v>0.5300310937821364</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6424089898894401</v>
       </c>
       <c r="E16" t="n">
-        <v>1.72634780677608</v>
+        <v>1.742244169374164</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.115003976102369</v>
+        <v>-2.108791324089013</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6795470484801553</v>
+        <v>0.6802539465445063</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7928696764195875</v>
       </c>
       <c r="E17" t="n">
-        <v>2.225315983454868</v>
+        <v>2.238609814525269</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.55159800485284</v>
+        <v>-2.541728268461703</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8559897812152475</v>
+        <v>0.8561623887667672</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9482247198371504</v>
       </c>
       <c r="E18" t="n">
-        <v>2.604176750706399</v>
+        <v>2.618507446927271</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.986839229542285</v>
+        <v>-2.976415075255983</v>
       </c>
       <c r="G18" t="n">
-        <v>1.062172856069252</v>
+        <v>1.061865456048171</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.103926234537255</v>
       </c>
       <c r="E19" t="n">
-        <v>2.857557317289198</v>
+        <v>2.872871205640988</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.378895020714583</v>
+        <v>-3.366461787719074</v>
       </c>
       <c r="G19" t="n">
-        <v>1.23333855510912</v>
+        <v>1.230373120778771</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.253377110035074</v>
       </c>
       <c r="E20" t="n">
-        <v>3.172757003984473</v>
+        <v>3.184244250010346</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.811770363098922</v>
+        <v>-3.793584358280325</v>
       </c>
       <c r="G20" t="n">
-        <v>1.403683910838762</v>
+        <v>1.400419615376806</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.390208618796771</v>
       </c>
       <c r="E21" t="n">
-        <v>3.469163814787787</v>
+        <v>3.479682506778984</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.166158673116613</v>
+        <v>-4.145898633036735</v>
       </c>
       <c r="G21" t="n">
-        <v>1.599184225039524</v>
+        <v>1.595987630772687</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.511174229954839</v>
       </c>
       <c r="E22" t="n">
-        <v>3.651027522497817</v>
+        <v>3.658893059545159</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.443283146684876</v>
+        <v>-4.421698053934762</v>
       </c>
       <c r="G22" t="n">
-        <v>1.681020331842194</v>
+        <v>1.679430878558589</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.612544389981784</v>
       </c>
       <c r="E23" t="n">
-        <v>3.829543985533852</v>
+        <v>3.835970109784069</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.702256685873455</v>
+        <v>-4.677870532415375</v>
       </c>
       <c r="G23" t="n">
-        <v>1.77403750449101</v>
+        <v>1.770018737151917</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.692629448691073</v>
       </c>
       <c r="E24" t="n">
-        <v>3.932601062442618</v>
+        <v>3.935128573727062</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.908534603392694</v>
+        <v>-4.886683890187856</v>
       </c>
       <c r="G24" t="n">
-        <v>1.870411070623971</v>
+        <v>1.866539294167974</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.748936544386485</v>
       </c>
       <c r="E25" t="n">
-        <v>4.003837357804084</v>
+        <v>4.004361889586088</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.028888420773358</v>
+        <v>-5.005990778726882</v>
       </c>
       <c r="G25" t="n">
-        <v>1.906796498516053</v>
+        <v>1.904501976930127</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.781535765581078</v>
       </c>
       <c r="E26" t="n">
-        <v>4.013764426738835</v>
+        <v>4.013508260054602</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.128420461130858</v>
+        <v>-5.104935160512335</v>
       </c>
       <c r="G26" t="n">
-        <v>1.899760453589088</v>
+        <v>1.900693632224512</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.79061882499421</v>
       </c>
       <c r="E27" t="n">
-        <v>4.098314070632358</v>
+        <v>4.099074031795586</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.20555621423817</v>
+        <v>-5.183739656591229</v>
       </c>
       <c r="G27" t="n">
-        <v>1.917468280597114</v>
+        <v>1.915037746700273</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.776913813080449</v>
       </c>
       <c r="E28" t="n">
-        <v>4.042059866774531</v>
+        <v>4.04562180352674</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.149651494928119</v>
+        <v>-5.129084359787498</v>
       </c>
       <c r="G28" t="n">
-        <v>1.862139326405914</v>
+        <v>1.860280898103863</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.741605759940513</v>
       </c>
       <c r="E29" t="n">
-        <v>3.998273661390789</v>
+        <v>4.001053679835406</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.138327707643615</v>
+        <v>-5.116289443830677</v>
       </c>
       <c r="G29" t="n">
-        <v>1.826579731110149</v>
+        <v>1.824220557932487</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.687365101386939</v>
       </c>
       <c r="E30" t="n">
-        <v>3.919571936945926</v>
+        <v>3.919723197273759</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.034436259249057</v>
+        <v>-5.01309574469032</v>
       </c>
       <c r="G30" t="n">
-        <v>1.776281402660767</v>
+        <v>1.774605340641063</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.618512781220607</v>
       </c>
       <c r="E31" t="n">
-        <v>3.811185373163736</v>
+        <v>3.809780115924508</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.964139241729783</v>
+        <v>-4.942928030354516</v>
       </c>
       <c r="G31" t="n">
-        <v>1.686756025886333</v>
+        <v>1.684219975712415</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.539615088928852</v>
       </c>
       <c r="E32" t="n">
-        <v>3.636424801655115</v>
+        <v>3.633217838736773</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.81066856136373</v>
+        <v>-4.79068451039008</v>
       </c>
       <c r="G32" t="n">
-        <v>1.621949514299145</v>
+        <v>1.61873950177742</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.456812636356134</v>
       </c>
       <c r="E33" t="n">
-        <v>3.478243093981859</v>
+        <v>3.474854374701847</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.647252819402961</v>
+        <v>-4.628175415515297</v>
       </c>
       <c r="G33" t="n">
-        <v>1.515268898649819</v>
+        <v>1.511934462310037</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.37501919215995</v>
       </c>
       <c r="E34" t="n">
-        <v>3.292878441587296</v>
+        <v>3.289900808843413</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.443030334564364</v>
+        <v>-4.422429043865844</v>
       </c>
       <c r="G34" t="n">
-        <v>1.381965855381117</v>
+        <v>1.379250488528234</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.299120232779263</v>
       </c>
       <c r="E35" t="n">
-        <v>3.118596047889246</v>
+        <v>3.116562572352968</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.286928151438481</v>
+        <v>-4.26601031190873</v>
       </c>
       <c r="G35" t="n">
-        <v>1.315521096856183</v>
+        <v>1.312905147073611</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.230260106693627</v>
       </c>
       <c r="E36" t="n">
-        <v>2.919531357253568</v>
+        <v>2.915346081569723</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.07936391121198</v>
+        <v>-4.059663778313356</v>
       </c>
       <c r="G36" t="n">
-        <v>1.229997409641894</v>
+        <v>1.226869126490853</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.169458077366221</v>
       </c>
       <c r="E37" t="n">
-        <v>2.677556307325958</v>
+        <v>2.674139531694815</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.953367412690382</v>
+        <v>-3.934153996491803</v>
       </c>
       <c r="G37" t="n">
-        <v>1.170081242040872</v>
+        <v>1.167059085087585</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.113920694209263</v>
       </c>
       <c r="E38" t="n">
-        <v>2.457285894601104</v>
+        <v>2.453991103105311</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.793643520585969</v>
+        <v>-3.774644796465606</v>
       </c>
       <c r="G38" t="n">
-        <v>1.091244115205771</v>
+        <v>1.087962741964867</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.061261691781528</v>
       </c>
       <c r="E39" t="n">
-        <v>2.264191107549436</v>
+        <v>2.261419627994293</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.675539700581829</v>
+        <v>-3.656798362987053</v>
       </c>
       <c r="G39" t="n">
-        <v>1.003290504015317</v>
+        <v>0.9994053093044324</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.00868421162019</v>
       </c>
       <c r="E40" t="n">
-        <v>2.042498359806405</v>
+        <v>2.040242263223114</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.576542865618175</v>
+        <v>-3.559081446563555</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8865211904519018</v>
+        <v>0.8829244882211185</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9543626472639822</v>
       </c>
       <c r="E41" t="n">
-        <v>1.812356990849061</v>
+        <v>1.808523029475022</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.429869141273802</v>
+        <v>-3.41268371132541</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8162156340431532</v>
+        <v>0.8134484239327472</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8978883899797359</v>
       </c>
       <c r="E42" t="n">
-        <v>1.575028316636917</v>
+        <v>1.572348325183286</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.357094625965577</v>
+        <v>-3.340717645874215</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7563153243797264</v>
+        <v>0.7539671297742464</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8384362311861572</v>
       </c>
       <c r="E43" t="n">
-        <v>1.369169719582942</v>
+        <v>1.365824914591656</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.228919795746973</v>
+        <v>-3.214122510208388</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6828528185481298</v>
+        <v>0.6787309746146665</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7770227387177773</v>
       </c>
       <c r="E44" t="n">
-        <v>1.132777273609607</v>
+        <v>1.129361717819818</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.164207821864681</v>
+        <v>-3.148654844607605</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6298092371327048</v>
+        <v>0.6268925964564955</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7126376142424811</v>
       </c>
       <c r="E45" t="n">
-        <v>1.014578305979894</v>
+        <v>1.013243189618492</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.061156539202344</v>
+        <v>-3.045149780961768</v>
       </c>
       <c r="G45" t="n">
-        <v>0.561346251088412</v>
+        <v>0.558411922712577</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6470191097778371</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8531768270540855</v>
+        <v>0.8501369824011732</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.973602731015498</v>
+        <v>-2.961702568691467</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4575627586536392</v>
+        <v>0.454798598146617</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5800980448168378</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6946743011048607</v>
+        <v>0.6924804164305979</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.92421135461244</v>
+        <v>-2.912392311738417</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4004235598938509</v>
+        <v>0.3988115395452058</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5132248783115916</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5523267441206616</v>
+        <v>0.5518754028198681</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.830806272413213</v>
+        <v>-2.81754476713868</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3394052656299449</v>
+        <v>0.3379682925155265</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4465108819681808</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4475265139177499</v>
+        <v>0.4458144665781181</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.756250178808207</v>
+        <v>-2.744294513702592</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2800673028304798</v>
+        <v>0.2782137538938425</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3804514333209564</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3029228603502598</v>
+        <v>0.3023672226137423</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.680197339862461</v>
+        <v>-2.668580180732441</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2262918166029571</v>
+        <v>0.2257069026739557</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3158362511119213</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2297281096957556</v>
+        <v>0.2277995405158783</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.576687091890872</v>
+        <v>-2.563809226722013</v>
       </c>
       <c r="G51" t="n">
-        <v>0.164535518320186</v>
+        <v>0.1636456440528105</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2523922518099912</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1312863025479423</v>
+        <v>0.128076899946894</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.482539736228041</v>
+        <v>-2.471659361275533</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1289728734210369</v>
+        <v>0.1283830801266216</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1917144657663539</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02050580010951581</v>
+        <v>0.01635711966627552</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.389568917550658</v>
+        <v>-2.378616571958293</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1178454805944454</v>
+        <v>0.1184700393674354</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1338150592931821</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.06558389349279582</v>
+        <v>-0.06845540003892568</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.323801780897592</v>
+        <v>-2.314556603279445</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07838849217426</v>
+        <v>0.07771148022306966</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.07992886793943707</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.08346737765572564</v>
+        <v>-0.08864255459793291</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.266810182941577</v>
+        <v>-2.257940716460306</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0483950329744975</v>
+        <v>0.04830903415907602</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.03031810284077244</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1481976491583203</v>
+        <v>-0.1524555054026985</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.23289371394897</v>
+        <v>-2.223811385151515</v>
       </c>
       <c r="G56" t="n">
-        <v>0.005703635205517188</v>
+        <v>0.005513339954371793</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.01449254198046292</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2573886983131414</v>
+        <v>-0.260173596123173</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.174687154004873</v>
+        <v>-2.166739887586846</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01213105530327277</v>
+        <v>-0.01183219417166623</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.05392572525715231</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.292363989600582</v>
+        <v>-0.2952153687643791</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.164229454081351</v>
+        <v>-2.15865355925452</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.03761171141577639</v>
+        <v>-0.03735920425560269</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.08860885115707688</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3545258851333906</v>
+        <v>-0.3562989245406972</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.116880702024722</v>
+        <v>-2.111334083390376</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0703656715985006</v>
+        <v>-0.06987529537439516</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1184282799106287</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3875146647766627</v>
+        <v>-0.3908844765156958</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.139930214319708</v>
+        <v>-2.135454006473054</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1012959689577481</v>
+        <v>-0.1015759225483755</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1442422239632924</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4393146179321986</v>
+        <v>-0.4420659701050091</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.103341682842269</v>
+        <v>-2.098323255513986</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.07814642967177557</v>
+        <v>-0.0778890431461879</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1661262003838798</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.463052730671233</v>
+        <v>-0.4658839824526975</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.051946107095417</v>
+        <v>-2.04694353770473</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1178742228724371</v>
+        <v>-0.1177680966746829</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1852785185470613</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5020998523966437</v>
+        <v>-0.5061241090218274</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.069879604753841</v>
+        <v>-2.065559536600434</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1645874375838941</v>
+        <v>-0.1636817053789232</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2026662560178611</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5554977977252594</v>
+        <v>-0.5606516274437805</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.11239290568521</v>
+        <v>-2.108419882396873</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1557405381676635</v>
+        <v>-0.1567060425989557</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2192877180164355</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.5746676045954509</v>
+        <v>-0.5790895295018743</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.181252340169389</v>
+        <v>-2.176463243015564</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1830881614716929</v>
+        <v>-0.1819323617892554</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2360989374403067</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.6273476732875342</v>
+        <v>-0.6309230282946312</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.23026434591151</v>
+        <v>-2.22457561575948</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1910171302694177</v>
+        <v>-0.1909549183603894</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.252941674862481</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.663174413839715</v>
+        <v>-0.6670937641084981</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.224271265341783</v>
+        <v>-2.220044515051919</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2025525600287537</v>
+        <v>-0.2014437242384257</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2700379320893689</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.731886247520121</v>
+        <v>-0.7364094192588846</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.283745240452163</v>
+        <v>-2.279592290564186</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2261131858508544</v>
+        <v>-0.2258997136139926</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2869500752057933</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.7332829658698741</v>
+        <v>-0.7394297464501409</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.337749446933466</v>
+        <v>-2.33452662607753</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2228183943550614</v>
+        <v>-0.2219779236625026</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3036882702594026</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7361337351129945</v>
+        <v>-0.7425165549951629</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.356305063682173</v>
+        <v>-2.352791920584104</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2101808379328417</v>
+        <v>-0.2102637871448794</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.319740659969429</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7726429769024564</v>
+        <v>-0.7800638817764501</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.395766931467772</v>
+        <v>-2.391024798206056</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2330199275943494</v>
+        <v>-0.2334401629406289</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3347806634489617</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.7643687930016924</v>
+        <v>-0.7698300227412944</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.482212818745305</v>
+        <v>-2.476741830274874</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2504691482354346</v>
+        <v>-0.2519969995306885</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3478085735380958</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.7470818112606221</v>
+        <v>-0.7522954132054646</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.490251573264844</v>
+        <v>-2.485008695127517</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2878560658787371</v>
+        <v>-0.2886385941070048</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3577050880006024</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.7144864304538524</v>
+        <v>-0.7211851892465763</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.511736639023971</v>
+        <v>-2.507191510140844</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2846503228017493</v>
+        <v>-0.2860214244830789</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3622653228108168</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6576808583042453</v>
+        <v>-0.6626785483295189</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.531074174080268</v>
+        <v>-2.526399132092994</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.273202721619865</v>
+        <v>-0.275628376151292</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3592839349307438</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5550915905545452</v>
+        <v>-0.5623874616898055</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.523792331120573</v>
+        <v>-2.515709662312308</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2490419338518442</v>
+        <v>-0.2495249910278286</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3504230565739979</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5208152683626578</v>
+        <v>-0.5269419215605921</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.52184607424107</v>
+        <v>-2.514005543941474</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2330168779909657</v>
+        <v>-0.2338134343947987</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3383074246593649</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.3667633335916636</v>
+        <v>-0.3753760234680229</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.536895257019152</v>
+        <v>-2.528287446508206</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2589269182598999</v>
+        <v>-0.259943656028039</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.324532658925454</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.2675414378982895</v>
+        <v>-0.2754289320899954</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.536160912524347</v>
+        <v>-2.528465543345817</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2190509143347887</v>
+        <v>-0.2201823171901563</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3095170452836736</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1464776728498907</v>
+        <v>-0.1538357558941793</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.498940503225797</v>
+        <v>-2.492277729753001</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.205527143169254</v>
+        <v>-0.2065005765693439</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2935037587545899</v>
       </c>
       <c r="E81" t="n">
-        <v>0.06215789304531743</v>
+        <v>0.05597573706579911</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.48175415839639</v>
+        <v>-2.472707204998186</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2040218589390398</v>
+        <v>-0.2037034803457773</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2759582682847031</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2261997185807681</v>
+        <v>0.219080114521088</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.448826370820793</v>
+        <v>-2.442944905734911</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1492637905012759</v>
+        <v>-0.1490277511993744</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.256910922384641</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3768726928025781</v>
+        <v>0.3709277959663148</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.404664454300173</v>
+        <v>-2.397904703439774</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1096793286596502</v>
+        <v>-0.1110784866921102</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2358823534356306</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5777994712643676</v>
+        <v>0.5750359206780221</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.304485593064981</v>
+        <v>-2.298516299401648</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09214288936179001</v>
+        <v>-0.0917202143328036</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2134864384956673</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7452903982268285</v>
+        <v>0.7407623471226509</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.231209722960469</v>
+        <v>-2.22414440184102</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.05113853218469482</v>
+        <v>-0.05141665601329194</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1905964268137267</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9648411045531199</v>
+        <v>0.9602709689222467</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.198322190149537</v>
+        <v>-2.191589275798915</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05971279705841902</v>
+        <v>-0.06126687494277307</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1689798138050092</v>
       </c>
       <c r="E87" t="n">
-        <v>1.085811551737976</v>
+        <v>1.083300508311805</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.083424723143061</v>
+        <v>-2.077266354069936</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01254397160143121</v>
+        <v>-0.01318377839133992</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1508405528817255</v>
       </c>
       <c r="E88" t="n">
-        <v>1.244053031637553</v>
+        <v>1.241587122341461</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.921988478738678</v>
+        <v>-1.91820331101878</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04040690187112819</v>
+        <v>0.03868326603863818</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1386738693648485</v>
       </c>
       <c r="E89" t="n">
-        <v>1.37916875915755</v>
+        <v>1.376416797064063</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.774788392850272</v>
+        <v>-1.771598507710879</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05863804081980439</v>
+        <v>0.05738587367044062</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1349951415627005</v>
       </c>
       <c r="E90" t="n">
-        <v>1.490495750522343</v>
+        <v>1.489030111136117</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.621694033541772</v>
+        <v>-1.621070694610135</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04529602601594062</v>
+        <v>0.0444238394481909</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1416206288746677</v>
       </c>
       <c r="E91" t="n">
-        <v>1.537980514889886</v>
+        <v>1.53526392819565</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.370320105985474</v>
+        <v>-1.367396146261144</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09403905673961517</v>
+        <v>0.09142798632245673</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1587841826431413</v>
       </c>
       <c r="E92" t="n">
-        <v>1.539849921764119</v>
+        <v>1.540138414244221</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.12941851644894</v>
+        <v>-1.1274942167138</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1125501492789187</v>
+        <v>0.1111436721983377</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1842540514768909</v>
       </c>
       <c r="E93" t="n">
-        <v>1.584896223266024</v>
+        <v>1.584979172478061</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9443899303472654</v>
+        <v>-0.9411012380582399</v>
       </c>
       <c r="G93" t="n">
-        <v>0.08753425272209713</v>
+        <v>0.08646994114117176</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2135038854216538</v>
       </c>
       <c r="E94" t="n">
-        <v>1.617896591402154</v>
+        <v>1.616910349667853</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7155275650490613</v>
+        <v>-0.7125877473871357</v>
       </c>
       <c r="G94" t="n">
-        <v>0.08680966695812044</v>
+        <v>0.08431875091428137</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2403194980160717</v>
       </c>
       <c r="E95" t="n">
-        <v>1.578105976371788</v>
+        <v>1.576069451232126</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5142049480680624</v>
+        <v>-0.5114188304166772</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0271673537409581</v>
+        <v>0.02444100831589428</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2593686506415423</v>
       </c>
       <c r="E96" t="n">
-        <v>1.492236464133782</v>
+        <v>1.488833716678204</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3297661552608032</v>
+        <v>-0.3278339265568653</v>
       </c>
       <c r="G96" t="n">
-        <v>0.006028722926223903</v>
+        <v>0.004579551398270517</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2676025020496647</v>
       </c>
       <c r="E97" t="n">
-        <v>1.435863325743989</v>
+        <v>1.432244056448166</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1687580751714973</v>
+        <v>-0.1648789796673797</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02338043226521395</v>
+        <v>-0.0247326264055644</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2654738657475147</v>
       </c>
       <c r="E98" t="n">
-        <v>1.351428346937695</v>
+        <v>1.348855701523172</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.07452289093121536</v>
+        <v>-0.07040409660113572</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.09151345122338601</v>
+        <v>-0.09272597352876115</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2556996826361986</v>
       </c>
       <c r="E99" t="n">
-        <v>1.265184343404166</v>
+        <v>1.261562024504959</v>
       </c>
       <c r="F99" t="n">
-        <v>0.01483963702252635</v>
+        <v>0.01934207145828051</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1029317762127864</v>
+        <v>-0.1045968596603086</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2431156223740323</v>
       </c>
       <c r="E100" t="n">
-        <v>1.129558722198407</v>
+        <v>1.127412411336931</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07815062311032826</v>
+        <v>0.08166010668433658</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1067041355984731</v>
+        <v>-0.1092804405370569</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2323262731152295</v>
       </c>
       <c r="E101" t="n">
-        <v>1.024291292757107</v>
+        <v>1.021370992556837</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1220527134226535</v>
+        <v>0.1257567616925444</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1506739271059174</v>
+        <v>-0.152674466925651</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2273386473598819</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9013812978201915</v>
+        <v>0.8989946782120763</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1499529248598166</v>
+        <v>0.1524182242352323</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.150086573494209</v>
+        <v>-0.1519157256037764</v>
       </c>
     </row>
   </sheetData>
